--- a/files/위치 데이터/위치병합데이터.xlsx
+++ b/files/위치 데이터/위치병합데이터.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -505,12 +505,12 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -525,16 +525,16 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>제주도 Jeju Island</t>
+          <t>Jeju Island</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -549,16 +549,16 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Jeju Island</t>
+          <t>제주도 Jeju Island</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -577,12 +577,12 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -601,84 +601,84 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>동백포레스트</t>
+          <t>제주맛집</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>126.6361981408183</v>
+        <v>126.4803012027962</v>
       </c>
       <c r="D8" t="n">
-        <v>33.30030815472558</v>
+        <v>33.4906255603177</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>동백포레스트</t>
+          <t>제주맛집</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>신창풍차해안도로</t>
+          <t>제주에인감귤밭</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>126.1742060465574</v>
+        <v>126.5390139270361</v>
       </c>
       <c r="D9" t="n">
-        <v>33.34308102674004</v>
+        <v>33.25656069063887</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>신창풍차해안도로</t>
+          <t>제주에인감귤밭</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>금능해수욕장</t>
+          <t>동백포레스트</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>126.235889902253</v>
+        <v>126.6361981408183</v>
       </c>
       <c r="D10" t="n">
-        <v>33.3904488156321</v>
+        <v>33.30030815472558</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>금능해변</t>
+          <t>동백포레스트</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>금능해수욕장</t>
+          <t>금능해변</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -702,430 +702,430 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>광치기해변</t>
+          <t>금능해수욕장</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>126.9238965687352</v>
+        <v>126.235889902253</v>
       </c>
       <c r="D12" t="n">
-        <v>33.45231690975651</v>
+        <v>33.3904488156321</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>광치기해변</t>
+          <t>금능해수욕장</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>숙성도 중문점</t>
+          <t>신창풍차해안도로</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>126.4075053251621</v>
+        <v>126.1742060465574</v>
       </c>
       <c r="D13" t="n">
-        <v>33.2583379388495</v>
+        <v>33.34308102674004</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>숙성도 중문점</t>
+          <t>신창풍차해안도로</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>스누피가든</t>
+          <t>곽지해수욕장</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>126.779667502934</v>
+        <v>126.3046775958366</v>
       </c>
       <c r="D14" t="n">
-        <v>33.4433592216395</v>
+        <v>33.45064040259736</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>스누피가든</t>
+          <t>제주도 곽지해수욕장</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>로드129</t>
+          <t>곽지해수욕장</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>126.321048106969</v>
+        <v>126.3046775958366</v>
       </c>
       <c r="D15" t="n">
-        <v>33.4643081022978</v>
+        <v>33.45064040259736</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>로드129</t>
+          <t>곽지해수욕장</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>애월더선셋</t>
+          <t>한라산국립공원</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>126.3088759418795</v>
+        <v>126.54222094512</v>
       </c>
       <c r="D16" t="n">
-        <v>33.4561265802926</v>
+        <v>33.3766655632143</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>애월더선셋</t>
+          <t>제주시 아라동</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>28</v>
+        <v>216</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>포도뮤지엄</t>
+          <t>한라산국립공원</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>126.385969459857</v>
+        <v>126.54222094512</v>
       </c>
       <c r="D17" t="n">
-        <v>33.3192727556025</v>
+        <v>33.3766655632143</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>포도뮤지엄</t>
+          <t>한라산국립공원</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>제주에인감귤밭</t>
+          <t>로드129</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>126.5390139270361</v>
+        <v>126.321048106969</v>
       </c>
       <c r="D18" t="n">
-        <v>33.25656069063887</v>
+        <v>33.4643081022978</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>제주에인감귤밭</t>
+          <t>로드129</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>불특정식당</t>
+          <t>미깡창고</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>126.8446304714575</v>
+        <v>126.4451276942543</v>
       </c>
       <c r="D19" t="n">
-        <v>33.37533150058143</v>
+        <v>33.46028056783821</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>불특정식당</t>
+          <t>미깡창고</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>담백</t>
+          <t>풀베개</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>126.801318576113</v>
+        <v>126.303224677035</v>
       </c>
       <c r="D20" t="n">
-        <v>33.556476561769</v>
+        <v>33.285512856952</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>담백</t>
+          <t>풀베개</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>풀베개</t>
+          <t>휴일로</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>126.303224677035</v>
+        <v>126.3665249797914</v>
       </c>
       <c r="D21" t="n">
-        <v>33.285512856952</v>
+        <v>33.23220805713053</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>풀베개</t>
+          <t>휴일로</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>메로왕</t>
+          <t>피규어뮤지엄제주</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>126.514065705066</v>
+        <v>126.3553565210792</v>
       </c>
       <c r="D22" t="n">
-        <v>33.4993529338882</v>
+        <v>33.28190640701935</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>메로왕</t>
+          <t>피규어뮤지엄제주</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>황우지해안</t>
+          <t>제주담공방</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>126.550527835146</v>
+        <v>126.47694633532</v>
       </c>
       <c r="D23" t="n">
-        <v>33.2414671811999</v>
+        <v>33.4923821696715</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>황우지해안</t>
+          <t>제주담공방</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>엉알해안</t>
+          <t>함덕해수욕장</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>126.167515521661</v>
+        <v>126.669238934013</v>
       </c>
       <c r="D24" t="n">
-        <v>33.2994209234776</v>
+        <v>33.5430615661113</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>엉알해안</t>
+          <t>함덕해수욕장</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>고토커피바</t>
+          <t>함덕해수욕장</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>126.380890926462</v>
+        <v>126.669238934013</v>
       </c>
       <c r="D25" t="n">
-        <v>33.4809951433453</v>
+        <v>33.5430615661113</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>고토커피바</t>
+          <t>제주도 함덕해수욕장</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>면뽑는선생만두빚는아내</t>
+          <t>애월더선셋</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>126.2493757904648</v>
+        <v>126.3088759418795</v>
       </c>
       <c r="D26" t="n">
-        <v>33.39974716015132</v>
+        <v>33.4561265802926</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>면뽑는선생만두빚는아내</t>
+          <t>애월더선셋</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>이드레국수</t>
+          <t>문쏘</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>126.415641100188</v>
+        <v>126.2567097099678</v>
       </c>
       <c r="D27" t="n">
-        <v>33.25526404227</v>
+        <v>33.40568769726779</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>이드레국수</t>
+          <t>문쏘</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>소노캄 제주</t>
+          <t>제주냥이</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>126.7920828147175</v>
+        <v>126.8396649348861</v>
       </c>
       <c r="D28" t="n">
-        <v>33.3055310248359</v>
+        <v>33.53354866465038</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>소노캄 제주</t>
+          <t>제주냥이</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>일통이반</t>
+          <t>협재해수욕장</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>126.5220802840385</v>
+        <v>126.239157539085</v>
       </c>
       <c r="D29" t="n">
-        <v>33.51706971286998</v>
+        <v>33.3938660776221</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>일통이반</t>
+          <t>제주 협재 해수욕장</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1134,22 +1134,22 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>49</v>
+        <v>208</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>대손가</t>
+          <t>협재해수욕장</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>126.47932745631</v>
+        <v>126.239157539085</v>
       </c>
       <c r="D30" t="n">
-        <v>33.4836025821065</v>
+        <v>33.3938660776221</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>대손가</t>
+          <t>협재해변 Beach</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1158,22 +1158,22 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>51</v>
+        <v>348</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>명품순두부</t>
+          <t>협재해수욕장</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>127.289765316151</v>
+        <v>126.239157539085</v>
       </c>
       <c r="D31" t="n">
-        <v>36.5994152918561</v>
+        <v>33.3938660776221</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>명품순두부</t>
+          <t>협재해수욕장</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1182,526 +1182,526 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>협재솥</t>
+          <t>단소</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>126.241636047213</v>
+        <v>126.3226220145829</v>
       </c>
       <c r="D32" t="n">
-        <v>33.3948585708531</v>
+        <v>33.46442490261183</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>협재솥</t>
+          <t>단소</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>닭머르</t>
+          <t>라온베이커리 남녕점</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>126.6118969361923</v>
+        <v>126.482131398564</v>
       </c>
       <c r="D33" t="n">
-        <v>33.53647489410832</v>
+        <v>33.4890211768993</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>닭머르</t>
+          <t>라온베이커리 남녕점</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>곽지해수욕장</t>
+          <t>오설록티뮤지엄</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>126.3046775958366</v>
+        <v>126.2894892954686</v>
       </c>
       <c r="D34" t="n">
-        <v>33.45064040259736</v>
+        <v>33.30591328662081</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>곽지해수욕장</t>
+          <t>오설록티뮤지엄</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>곽지해수욕장</t>
+          <t>대박이네</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>126.3046775958366</v>
+        <v>126.4028739163018</v>
       </c>
       <c r="D35" t="n">
-        <v>33.45064040259736</v>
+        <v>33.48333623932163</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>제주도 곽지해수욕장</t>
+          <t>대박이네</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>우도</t>
+          <t>컴플렉스</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>126.955582257582</v>
+        <v>126.5241133233921</v>
       </c>
       <c r="D36" t="n">
-        <v>33.5044199749505</v>
+        <v>33.51140653820578</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>제주도 우도</t>
+          <t>컴플렉스</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>우도</t>
+          <t>제주곶자왈도립공원</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>126.955582257582</v>
+        <v>126.2736585072072</v>
       </c>
       <c r="D37" t="n">
-        <v>33.5044199749505</v>
+        <v>33.28318695642633</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>제주 우도</t>
+          <t>제주곶자왈도립공원</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>우도</t>
+          <t>화산2020</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>126.955582257582</v>
+        <v>126.513818734498</v>
       </c>
       <c r="D38" t="n">
-        <v>33.5044199749505</v>
+        <v>33.5158077954112</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>우도</t>
+          <t>화산2020</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>블루메베이글</t>
+          <t>덴드리</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>126.533097460463</v>
+        <v>126.8660544162247</v>
       </c>
       <c r="D39" t="n">
-        <v>33.4967141199483</v>
+        <v>33.36958969198152</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>블루메베이글</t>
+          <t>덴드리</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>제주담공방</t>
+          <t>애월해안도로</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>126.47694633532</v>
+        <v>126.36867872098</v>
       </c>
       <c r="D40" t="n">
-        <v>33.4923821696715</v>
+        <v>33.4781232943703</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>제주담공방</t>
+          <t>애월해안도로</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>안양일번가</t>
+          <t>애월해안도로</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>126.922565238791</v>
+        <v>126.36867872098</v>
       </c>
       <c r="D41" t="n">
-        <v>37.399171709091</v>
+        <v>33.4781232943703</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>안양일번가</t>
+          <t>제주 해안도로</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>제주바다</t>
+          <t>표선해수욕장</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>126.251115706106</v>
+        <v>126.837424825392</v>
       </c>
       <c r="D42" t="n">
-        <v>33.2177847523901</v>
+        <v>33.3275109235413</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>제주바다</t>
+          <t>표선해수욕장</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>82</v>
+        <v>165</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>구아우쇼콜라</t>
+          <t>표선해수욕장</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>126.746135453328</v>
+        <v>126.837424825392</v>
       </c>
       <c r="D43" t="n">
-        <v>33.55625399005334</v>
+        <v>33.3275109235413</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>구아우쇼콜라</t>
+          <t>표선 해비치해수욕장</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>표선해수욕장</t>
+          <t>포도뮤지엄</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>126.837424825392</v>
+        <v>126.385969459857</v>
       </c>
       <c r="D44" t="n">
-        <v>33.3275109235413</v>
+        <v>33.3192727556025</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>표선해수욕장</t>
+          <t>포도뮤지엄</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>표선해수욕장</t>
+          <t>하나의식탁</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>126.837424825392</v>
+        <v>126.528960340612</v>
       </c>
       <c r="D45" t="n">
-        <v>33.3275109235413</v>
+        <v>33.4976108738619</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>표선 해비치해수욕장</t>
+          <t>하나의식탁</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>우도잠수함</t>
+          <t>제주시차</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>126.934507758196</v>
+        <v>126.282600284174</v>
       </c>
       <c r="D46" t="n">
-        <v>33.4729265517159</v>
+        <v>33.4416331239868</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>우도잠수함</t>
+          <t>제주시차</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>흙먹는고양이</t>
+          <t>새별오름</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>126.8365262472702</v>
+        <v>126.3577306657398</v>
       </c>
       <c r="D47" t="n">
-        <v>33.53836901087809</v>
+        <v>33.36627759113929</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>흙먹는고양이</t>
+          <t>새별오름</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>용담해안도로</t>
+          <t>광치기해변</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>126.50956060325</v>
+        <v>126.9238965687352</v>
       </c>
       <c r="D48" t="n">
-        <v>33.5158270736255</v>
+        <v>33.45231690975651</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>용담해안도로</t>
+          <t>광치기해변</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>함덕해수욕장</t>
+          <t>제주여행</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>126.669238934013</v>
+        <v>127.3041879999479</v>
       </c>
       <c r="D49" t="n">
-        <v>33.5430615661113</v>
+        <v>38.07053612435701</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>함덕해수욕장</t>
+          <t>제주여행</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>함덕해수욕장</t>
+          <t>흙먹는고양이</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>126.669238934013</v>
+        <v>126.8365262472702</v>
       </c>
       <c r="D50" t="n">
-        <v>33.5430615661113</v>
+        <v>33.53836901087809</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>조천읍</t>
+          <t>흙먹는고양이</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>미깡창고</t>
+          <t>한라드블랑</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>126.4451276942543</v>
+        <v>126.540550972888</v>
       </c>
       <c r="D51" t="n">
-        <v>33.46028056783821</v>
+        <v>33.4725972613032</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>미깡창고</t>
+          <t>한라드블랑</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>화산2020</t>
+          <t>보내다제주</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>126.513818734498</v>
+        <v>126.7605465866934</v>
       </c>
       <c r="D52" t="n">
-        <v>33.5158077954112</v>
+        <v>33.33016172775159</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>화산2020</t>
+          <t>보내다제주</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>유탑유블레스호텔 제주</t>
+          <t>한거리푸줏간</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>126.666278377026</v>
+        <v>126.79444230986</v>
       </c>
       <c r="D53" t="n">
-        <v>33.5424116890052</v>
+        <v>33.5553239177393</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>유탑유블레스호텔 제주</t>
+          <t>한거리푸줏간</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -1710,22 +1710,22 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>휴일로</t>
+          <t>닻</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>126.3665249797914</v>
+        <v>126.3920794393981</v>
       </c>
       <c r="D54" t="n">
-        <v>33.23220805713053</v>
+        <v>33.48605343404238</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>휴일로</t>
+          <t>닻</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -1734,22 +1734,22 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>아주르블루</t>
+          <t>한성식당</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>126.7238222165187</v>
+        <v>126.973098147371</v>
       </c>
       <c r="D55" t="n">
-        <v>33.27969348302017</v>
+        <v>37.563260528947</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>아주르블루</t>
+          <t>한성식당</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -1758,22 +1758,22 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>대전서구문화원</t>
+          <t>오리정</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>127.385563179589</v>
+        <v>126.559649082049</v>
       </c>
       <c r="D56" t="n">
-        <v>36.3446140279522</v>
+        <v>37.6989083140988</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>대전서구문화원</t>
+          <t>오리정</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -1782,22 +1782,22 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>제주동백수목원</t>
+          <t>우도잠수함</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>126.6779915026485</v>
+        <v>126.934507758196</v>
       </c>
       <c r="D57" t="n">
-        <v>33.27497497875763</v>
+        <v>33.4729265517159</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>제주동백수목원</t>
+          <t>우도잠수함</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -1806,22 +1806,22 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>버터모닝</t>
+          <t>바닐라파레트</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>126.4229536497184</v>
+        <v>126.480579828486</v>
       </c>
       <c r="D58" t="n">
-        <v>33.46425633976876</v>
+        <v>33.4771172717429</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>버터모닝</t>
+          <t>바닐라파레트</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -1830,22 +1830,22 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>제주냥이</t>
+          <t>천지연폭포</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>126.8396649348861</v>
+        <v>126.5545223428799</v>
       </c>
       <c r="D59" t="n">
-        <v>33.53354866465038</v>
+        <v>33.24721231608811</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>제주냥이</t>
+          <t>천지연폭포</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -1854,22 +1854,22 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>연대포구</t>
+          <t>카페치즈태비</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>126.426364951287</v>
+        <v>126.8077719493206</v>
       </c>
       <c r="D60" t="n">
-        <v>33.494744095982</v>
+        <v>33.55513706334602</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>연대포구</t>
+          <t>카페치즈태비</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -1878,22 +1878,22 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>고요새</t>
+          <t>트라인커피</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>126.5867403349498</v>
+        <v>126.6331963110968</v>
       </c>
       <c r="D61" t="n">
-        <v>33.5255158080768</v>
+        <v>33.4939358468351</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>고요새</t>
+          <t>트라인커피</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -1902,22 +1902,22 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>카페치즈태비</t>
+          <t>마마뜰</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>126.8077719493206</v>
+        <v>126.333571516211</v>
       </c>
       <c r="D62" t="n">
-        <v>33.55513706334602</v>
+        <v>33.3101922253042</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>카페치즈태비</t>
+          <t>마마뜰</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -1926,22 +1926,22 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>방주교회</t>
+          <t>제3공간</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>126.387439255121</v>
+        <v>126.488830799632</v>
       </c>
       <c r="D63" t="n">
-        <v>33.305048981119</v>
+        <v>33.4769063411423</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>방주교회</t>
+          <t>제3공간</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -1950,22 +1950,22 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>모슬포</t>
+          <t>위즈커피</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>126.270591415441</v>
+        <v>126.432128534267</v>
       </c>
       <c r="D64" t="n">
-        <v>33.1737490620551</v>
+        <v>33.4874749915111</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>모슬포</t>
+          <t>위즈커피</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -1974,22 +1974,22 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>덴드리</t>
+          <t>오늘의감정오감</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>126.8660544162247</v>
+        <v>126.8611215196673</v>
       </c>
       <c r="D65" t="n">
-        <v>33.36958969198152</v>
+        <v>33.52187362827722</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>덴드리</t>
+          <t>오늘의감정오감</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -1998,22 +1998,22 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>무로이</t>
+          <t>서홍정원</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>126.336566694261</v>
+        <v>126.554407157697</v>
       </c>
       <c r="D66" t="n">
-        <v>33.3077351431997</v>
+        <v>33.2525711912172</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>무로이</t>
+          <t>서홍정원</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -2022,22 +2022,22 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>파스테이스</t>
+          <t>제주돌창고</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>126.26684862529</v>
+        <v>126.233567730616</v>
       </c>
       <c r="D67" t="n">
-        <v>33.4076260320448</v>
+        <v>33.3370926998628</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>파스테이스</t>
+          <t>제주돌창고</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -2046,22 +2046,22 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>시월의리브라</t>
+          <t>달책빵</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>126.538175779101</v>
+        <v>126.8394335702856</v>
       </c>
       <c r="D68" t="n">
-        <v>33.51330080867158</v>
+        <v>33.53640643032166</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>시월의리브라</t>
+          <t>달책빵</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -2070,22 +2070,22 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>너븐</t>
+          <t>제주바다</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>126.574103781235</v>
+        <v>126.251115706106</v>
       </c>
       <c r="D69" t="n">
-        <v>33.2453333881799</v>
+        <v>33.2177847523901</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>너븐</t>
+          <t>제주바다</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -2094,22 +2094,22 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>제주탑동골목</t>
+          <t>닭머르</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>126.5260830398025</v>
+        <v>126.6118969361923</v>
       </c>
       <c r="D70" t="n">
-        <v>33.51533600695393</v>
+        <v>33.53647489410832</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>제주탑동골목</t>
+          <t>닭머르</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -2118,22 +2118,22 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>아베크아롬</t>
+          <t>소노캄 제주</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>126.278797192182</v>
+        <v>126.7920828147175</v>
       </c>
       <c r="D71" t="n">
-        <v>33.2744388228157</v>
+        <v>33.3055310248359</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>아베크아롬</t>
+          <t>소노캄 제주</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -2142,22 +2142,22 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>영국찻집</t>
+          <t>엉알해안</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>126.314112546652</v>
+        <v>126.167515521661</v>
       </c>
       <c r="D72" t="n">
-        <v>33.4172313997298</v>
+        <v>33.2994209234776</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>영국찻집</t>
+          <t>엉알해안</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -2166,25 +2166,2041 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>인디고인디드</t>
+          <t>황우지해안</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>126.3340845318474</v>
+        <v>126.550527835146</v>
       </c>
       <c r="D73" t="n">
-        <v>33.46640738320164</v>
+        <v>33.2414671811999</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>인디고인디드</t>
+          <t>황우지해안</t>
         </is>
       </c>
       <c r="F73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>황금어장</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>126.495500774504</v>
+      </c>
+      <c r="D74" t="n">
+        <v>33.484395256844</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>황금어장</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>수복강녕</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>126.4993640051344</v>
+      </c>
+      <c r="D75" t="n">
+        <v>33.48841399505487</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>수복강녕</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>분식후경</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>126.9028687561492</v>
+      </c>
+      <c r="D76" t="n">
+        <v>33.40046478934569</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>분식후경</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>블루메베이글</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>126.533097460463</v>
+      </c>
+      <c r="D77" t="n">
+        <v>33.4967141199483</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>블루메베이글</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>안양일번가</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>126.922565238791</v>
+      </c>
+      <c r="D78" t="n">
+        <v>37.399171709091</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>안양일번가</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>용담해안도로</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>126.50956060325</v>
+      </c>
+      <c r="D79" t="n">
+        <v>33.5158270736255</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>용담해안도로</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>고씨네천지국수</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>126.560751219246</v>
+      </c>
+      <c r="D80" t="n">
+        <v>33.251745326745</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>고씨네천지국수</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>우정회센타</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>126.563203876543</v>
+      </c>
+      <c r="D81" t="n">
+        <v>33.24967841269132</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>우정회센타</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>싸이공레시피</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>126.400183865841</v>
+      </c>
+      <c r="D82" t="n">
+        <v>33.4797764034322</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>싸이공레시피</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>양가형제</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>126.2539802609415</v>
+      </c>
+      <c r="D83" t="n">
+        <v>33.30735239828433</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>양가형제</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>다랑쉬오름</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>126.8215359246156</v>
+      </c>
+      <c r="D84" t="n">
+        <v>33.47768585996772</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>다랑쉬오름</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>주야진</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>126.6633528493908</v>
+      </c>
+      <c r="D85" t="n">
+        <v>33.27267851657619</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>주야진</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>논짓물식당</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>126.388055610469</v>
+      </c>
+      <c r="D86" t="n">
+        <v>33.236417315394</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>논짓물식당</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>마담나탈리소셜클럽</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>126.249703899682</v>
+      </c>
+      <c r="D87" t="n">
+        <v>33.399841106569</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>마담나탈리소셜클럽</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>협재칼국수</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>126.244506163658</v>
+      </c>
+      <c r="D88" t="n">
+        <v>33.3968090833636</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>협재칼국수</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>오쿠다</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>127.0256067936045</v>
+      </c>
+      <c r="D89" t="n">
+        <v>37.50967290969419</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>오쿠다</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>고부루비어컴퍼니</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>126.5525336916754</v>
+      </c>
+      <c r="D90" t="n">
+        <v>33.24706091637334</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>고부루비어컴퍼니</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>협재솥</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>126.241636047213</v>
+      </c>
+      <c r="D91" t="n">
+        <v>33.3948585708531</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>협재솥</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>판포포구</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>126.200023263531</v>
+      </c>
+      <c r="D92" t="n">
+        <v>33.365021627537</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>판포포구</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>아카렌가</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>126.264946704693</v>
+      </c>
+      <c r="D93" t="n">
+        <v>33.4117413474751</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>아카렌가</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>모던뽀이</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>126.528928554268</v>
+      </c>
+      <c r="D94" t="n">
+        <v>33.4995059007039</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>모던뽀이</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>더문에스테틱</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>126.533714819848</v>
+      </c>
+      <c r="D95" t="n">
+        <v>33.489146664169</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>더문에스테틱</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>무운</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>126.284446853029</v>
+      </c>
+      <c r="D96" t="n">
+        <v>33.2476467414278</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>무운</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>목포역</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>126.386648357847</v>
+      </c>
+      <c r="D97" t="n">
+        <v>34.7911789935817</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>목포역</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>토끼썸</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>126.898814982248</v>
+      </c>
+      <c r="D98" t="n">
+        <v>33.52192638345875</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>토끼썸</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>고스란</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>126.3602862936562</v>
+      </c>
+      <c r="D99" t="n">
+        <v>33.28331314704803</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>고스란</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>스콘가게끌림</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>126.58279285663</v>
+      </c>
+      <c r="D100" t="n">
+        <v>33.5244080422855</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>스콘가게끌림</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>산양큰엉곶</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>126.2506310577401</v>
+      </c>
+      <c r="D101" t="n">
+        <v>33.29092307433014</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>산양큰엉곶</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>미닝</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>126.277472263669</v>
+      </c>
+      <c r="D102" t="n">
+        <v>33.440651278265</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>미닝</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>소길별하</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>126.37577585804</v>
+      </c>
+      <c r="D103" t="n">
+        <v>33.4298394296361</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>소길별하</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>대전서구문화원</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>127.385563179589</v>
+      </c>
+      <c r="D104" t="n">
+        <v>36.3446140279522</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>대전서구문화원</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>연대포구</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>126.426364951287</v>
+      </c>
+      <c r="D105" t="n">
+        <v>33.494744095982</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>연대포구</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>버터모닝</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>126.4229536497184</v>
+      </c>
+      <c r="D106" t="n">
+        <v>33.46425633976876</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>버터모닝</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>서울앵무새</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>127.043603792836</v>
+      </c>
+      <c r="D107" t="n">
+        <v>37.5482989829541</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>서울앵무새</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>프레젠트</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>126.5214901003522</v>
+      </c>
+      <c r="D108" t="n">
+        <v>33.49796723041738</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>프레젠트</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>사진놀이터</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>126.441735120785</v>
+      </c>
+      <c r="D109" t="n">
+        <v>33.4567500242143</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>사진놀이터</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>큰손상회</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>126.800414845577</v>
+      </c>
+      <c r="D110" t="n">
+        <v>33.5542409577363</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>큰손상회</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>송악산</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>126.2897914275359</v>
+      </c>
+      <c r="D111" t="n">
+        <v>33.19908293934712</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>송악산</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>미남미녀</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>128.815711636266</v>
+      </c>
+      <c r="D112" t="n">
+        <v>35.9110205265075</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>미남미녀</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>와인터널</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>128.7205340487789</v>
+      </c>
+      <c r="D113" t="n">
+        <v>35.71513206473317</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>와인터널</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>제주곳집</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>126.82109561969</v>
+      </c>
+      <c r="D114" t="n">
+        <v>33.5327388418777</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>제주곳집</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>미카의달콤한작업실</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>126.2989279422013</v>
+      </c>
+      <c r="D115" t="n">
+        <v>33.22673960787681</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>미카의달콤한작업실</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>슬기식당</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>126.5396245892827</v>
+      </c>
+      <c r="D116" t="n">
+        <v>33.51511298949718</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>슬기식당</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>제주풀무질</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>126.8588804593507</v>
+      </c>
+      <c r="D117" t="n">
+        <v>33.51320851503672</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>제주풀무질</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>모이소</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>126.4885256161</v>
+      </c>
+      <c r="D118" t="n">
+        <v>33.4870966878762</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>모이소</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>오누박스게스트하우스</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>126.306377128482</v>
+      </c>
+      <c r="D119" t="n">
+        <v>33.4446697023813</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>오누박스게스트하우스</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>성산일출봉</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>126.940537521366</v>
+      </c>
+      <c r="D120" t="n">
+        <v>33.4591349705437</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>성산일출봉</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>그리다앤쿡</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>126.530652571894</v>
+      </c>
+      <c r="D121" t="n">
+        <v>33.4975054978261</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>그리다앤쿡</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>무로이</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>126.336566694261</v>
+      </c>
+      <c r="D122" t="n">
+        <v>33.3077351431997</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>무로이</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>유우스테이</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>126.754238790278</v>
+      </c>
+      <c r="D123" t="n">
+        <v>33.5577823122422</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>유우스테이</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>테라도스</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>126.3423965145357</v>
+      </c>
+      <c r="D124" t="n">
+        <v>33.45274583269359</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>테라도스</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>너랑나랑게스트하우스</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>126.332077293408</v>
+      </c>
+      <c r="D125" t="n">
+        <v>33.2430321147082</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>너랑나랑게스트하우스</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>마틸다</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>126.3342728419857</v>
+      </c>
+      <c r="D126" t="n">
+        <v>33.46569614224088</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>마틸다</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>폴카페</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>126.4163780908526</v>
+      </c>
+      <c r="D127" t="n">
+        <v>33.46904095393298</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>폴카페</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>콜린 제주</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>126.3104348968481</v>
+      </c>
+      <c r="D128" t="n">
+        <v>33.46286649069285</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>콜린 제주</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>소사오름</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>126.229692128445</v>
+      </c>
+      <c r="D129" t="n">
+        <v>33.3883260282439</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>소사오름</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>보래드베이커스</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>126.5905661537694</v>
+      </c>
+      <c r="D130" t="n">
+        <v>33.24439867815045</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>보래드베이커스</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>오사카</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>128.982001477403</v>
+      </c>
+      <c r="D131" t="n">
+        <v>35.1003636923282</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>오사카</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>고요새</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>126.5867403349498</v>
+      </c>
+      <c r="D132" t="n">
+        <v>33.5255158080768</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>고요새</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>레이지펌프</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>126.309539831628</v>
+      </c>
+      <c r="D133" t="n">
+        <v>33.4662712983402</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>레이지펌프</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>엘파소</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>126.3259367938189</v>
+      </c>
+      <c r="D134" t="n">
+        <v>33.24539007465288</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>엘파소</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>샬로우커피</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>129.122172051268</v>
+      </c>
+      <c r="D135" t="n">
+        <v>35.1576178330502</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>샬로우커피</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>유탑유블레스호텔 제주</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>126.666278377026</v>
+      </c>
+      <c r="D136" t="n">
+        <v>33.5424116890052</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>유탑유블레스호텔 제주</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>바미아일랜드</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>126.797337581828</v>
+      </c>
+      <c r="D137" t="n">
+        <v>33.5550221489527</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>바미아일랜드</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>제주바솔트</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>126.5392353129124</v>
+      </c>
+      <c r="D138" t="n">
+        <v>33.50407966811111</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>제주바솔트</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>꽃향유</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>126.347633279327</v>
+      </c>
+      <c r="D139" t="n">
+        <v>33.4570686613301</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>꽃향유</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>정방폭포</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>126.571605283591</v>
+      </c>
+      <c r="D140" t="n">
+        <v>33.2449966137286</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>정방폭포</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>파스테이스</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>126.26684862529</v>
+      </c>
+      <c r="D141" t="n">
+        <v>33.4076260320448</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>파스테이스</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>모슬포</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>126.270591415441</v>
+      </c>
+      <c r="D142" t="n">
+        <v>33.1737490620551</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>모슬포</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>달달한구</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>126.562616951442</v>
+      </c>
+      <c r="D143" t="n">
+        <v>33.2425597781727</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>달달한구</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>취다선리조트</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>126.9127060920652</v>
+      </c>
+      <c r="D144" t="n">
+        <v>33.47182577628887</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>취다선리조트</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>에어그라운드</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>126.746559586853</v>
+      </c>
+      <c r="D145" t="n">
+        <v>33.2820717369049</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>에어그라운드</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>소길다방</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>126.379435677348</v>
+      </c>
+      <c r="D146" t="n">
+        <v>33.4388106137126</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>소길다방</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>수월봉</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>126.1631085864105</v>
+      </c>
+      <c r="D147" t="n">
+        <v>33.29476974463891</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>수월봉</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>파더스가든</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>126.3657531765846</v>
+      </c>
+      <c r="D148" t="n">
+        <v>33.27994207702475</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>파더스가든</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>디앤디파트먼트 제주</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>126.52318858093</v>
+      </c>
+      <c r="D149" t="n">
+        <v>33.51772312838622</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>디앤디파트먼트 제주</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>아주르블루</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>126.7238222165187</v>
+      </c>
+      <c r="D150" t="n">
+        <v>33.27969348302017</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>아주르블루</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>숙성도 중문점</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>126.4075053251621</v>
+      </c>
+      <c r="D151" t="n">
+        <v>33.2583379388495</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>숙성도 중문점</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>오하효</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>126.6177683874339</v>
+      </c>
+      <c r="D152" t="n">
+        <v>33.25911694102901</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>오하효</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>성수동카페거리</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>127.0563935302218</v>
+      </c>
+      <c r="D153" t="n">
+        <v>37.54243256842165</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>성수동카페거리</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>베케</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>126.6049214775902</v>
+      </c>
+      <c r="D154" t="n">
+        <v>33.2619169247023</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>베케</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>번네식당</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>126.329704864369</v>
+      </c>
+      <c r="D155" t="n">
+        <v>33.2457133826967</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>번네식당</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>너븐</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>126.574103781235</v>
+      </c>
+      <c r="D156" t="n">
+        <v>33.2453333881799</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>너븐</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>양과자회관</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>126.7657198690762</v>
+      </c>
+      <c r="D157" t="n">
+        <v>33.36204038767966</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>양과자회관</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
         <v>1</v>
       </c>
     </row>
